--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -451,211 +451,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>110013</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>易方达科翔混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>93.36</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.70</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达科讯混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>004211</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>89.68</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.94</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>易方达科讯混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>41.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004833</t>
+          <t>110013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合A</t>
+          <t>易方达科翔混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>51.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004834</t>
+          <t>009341</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合C</t>
+          <t>易方达均衡成长股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>103.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科翔混合</t>
+          <t>易方达平稳增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>29.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>001018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>易方达新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>009864</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商景气优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>55.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>010147</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>博道嘉兴一年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>217005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>招商先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>009865</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>招商景气优选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>217005</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商先锋混合</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009341</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达均衡成长股票</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.83</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009864</t>
+          <t>160529</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商景气优选股票A</t>
+          <t>博时创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009865</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商景气优选股票C</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>22.20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010147</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博道嘉兴一年持有期混合</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.39</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.28</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001018</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达新经济灵活配置混合</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010495</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票A</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010496</t>
+          <t>010495</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票C</t>
+          <t>创金合信创新驱动股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>易方达平稳增长混合</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>60.25</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>110029</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达科讯混合</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>82.88</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160529</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时创业板两年定期开放混合</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>82.82</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>010496</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>创金合信创新驱动股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>004833</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>先锋聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>004834</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>先锋聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1630,26 +2040,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>010356</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2048,7 +2049,6 @@
           <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>92.10</t>
@@ -2064,6 +2064,1316 @@
       </c>
       <c r="H35" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3379,4 +3380,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6883</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7611</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4576,4 +4577,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4585,7 +4586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4596,17 +4597,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4616,14 +4637,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.43</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4632,14 +4675,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.7</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4648,14 +4713,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.18</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4664,13 +4751,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4843</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5364,7 +5365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5375,17 +5376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5395,14 +5416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.79</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5411,14 +5454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.43</v>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5427,14 +5492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.7</v>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5443,14 +5530,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.18</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5459,13 +5568,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0888</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6447,7 +6448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6458,17 +6459,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6478,14 +6499,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.37</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6494,14 +6537,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.79</v>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6510,14 +6575,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.43</v>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6526,14 +6613,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.7</v>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6542,14 +6651,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.18</v>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6558,13 +6689,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>3.88</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>25.37</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>24.79</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>26.43</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>18.7</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>20.18</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.03</v>
       </c>
     </row>
@@ -600,6 +617,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2895,7 +3458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4091,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5401,7 +5964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6742,7 +7305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300476-胜宏科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.88</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>25.37</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>24.79</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>26.43</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>18.7</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>20.18</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,314 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +918,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1162,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1598,7 +2183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2680,7 +3265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3458,7 +4043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4654,7 +5239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5964,7 +6549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7303,288 +7888,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科讯混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8600</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110013</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科翔混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2387</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9406</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4444</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5305</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>